--- a/data/2024-07-22/SCW Weekly Comp 2024-07-22 (Responses).xlsx
+++ b/data/2024-07-22/SCW Weekly Comp 2024-07-22 (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="283">
   <si>
     <t>Timestamp</t>
   </si>
@@ -815,6 +815,51 @@
   </si>
   <si>
     <t>https://www.facebook.com/1045330593/videos/1028383858723415/</t>
+  </si>
+  <si>
+    <t>Dan Smith</t>
+  </si>
+  <si>
+    <t>2018SMIT42</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/events/1450990238890383?post_id=1459809214675152&amp;view=permalink</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/events/909767637577126/?post_id=919309909956232&amp;view=permalink</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/events/785148847162745/?post_id=794150219595941&amp;view=permalink</t>
+  </si>
+  <si>
+    <t>1:29.63</t>
+  </si>
+  <si>
+    <t>1:22.64</t>
+  </si>
+  <si>
+    <t>1:21.86</t>
+  </si>
+  <si>
+    <t>1:33.41</t>
+  </si>
+  <si>
+    <t>1:10.01</t>
+  </si>
+  <si>
+    <t>1:24.71</t>
+  </si>
+  <si>
+    <t>2:53.56</t>
+  </si>
+  <si>
+    <t>2:51.81</t>
+  </si>
+  <si>
+    <t>2:48.83</t>
+  </si>
+  <si>
+    <t>2:51.40</t>
   </si>
 </sst>
 </file>
@@ -4065,6 +4110,293 @@
         <v>15.53</v>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>45509.65408474537</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="BV69" s="3">
+        <v>22.25</v>
+      </c>
+      <c r="BW69" s="3">
+        <v>19.69</v>
+      </c>
+      <c r="BX69" s="3">
+        <v>33.08</v>
+      </c>
+      <c r="BY69" s="3">
+        <v>21.37</v>
+      </c>
+      <c r="BZ69" s="3">
+        <v>18.6</v>
+      </c>
+      <c r="CA69" s="3">
+        <v>18.6</v>
+      </c>
+      <c r="CB69" s="3">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2">
+        <v>45509.65466606482</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="BH70" s="3">
+        <v>11.62</v>
+      </c>
+      <c r="BI70" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="BJ70" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="BK70" s="3">
+        <v>11.87</v>
+      </c>
+      <c r="BL70" s="3">
+        <v>12.21</v>
+      </c>
+      <c r="BM70" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="BN70" s="3">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>45509.65584900463</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="CC71" s="3">
+        <v>21.22</v>
+      </c>
+      <c r="CD71" s="3">
+        <v>16.65</v>
+      </c>
+      <c r="CE71" s="3">
+        <v>17.81</v>
+      </c>
+      <c r="CF71" s="3">
+        <v>30.38</v>
+      </c>
+      <c r="CG71" s="3">
+        <v>28.56</v>
+      </c>
+      <c r="CH71" s="3">
+        <v>16.65</v>
+      </c>
+      <c r="CI71" s="3">
+        <v>22.53</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2">
+        <v>45509.65661099537</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H72" s="3">
+        <v>5.53</v>
+      </c>
+      <c r="I72" s="3">
+        <v>8.3</v>
+      </c>
+      <c r="J72" s="3">
+        <v>8.65</v>
+      </c>
+      <c r="K72" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="L72" s="3">
+        <v>9.16</v>
+      </c>
+      <c r="M72" s="3">
+        <v>5.53</v>
+      </c>
+      <c r="N72" s="3">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2">
+        <v>45509.65725875</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="O73" s="3">
+        <v>23.38</v>
+      </c>
+      <c r="P73" s="3">
+        <v>30.27</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>35.37</v>
+      </c>
+      <c r="R73" s="3">
+        <v>23.41</v>
+      </c>
+      <c r="S73" s="3">
+        <v>25.61</v>
+      </c>
+      <c r="T73" s="3">
+        <v>23.38</v>
+      </c>
+      <c r="U73" s="3">
+        <v>26.43</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2">
+        <v>45509.658267175924</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="V74" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="W74" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="X74" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y74" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z74" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA74" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB74" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2">
+        <v>45509.659022430555</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC75" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD75" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE75" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF75" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG75" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH75" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI75" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F2"/>
@@ -4134,7 +4466,14 @@
     <hyperlink r:id="rId65" ref="F66"/>
     <hyperlink r:id="rId66" ref="F67"/>
     <hyperlink r:id="rId67" ref="F68"/>
+    <hyperlink r:id="rId68" ref="F69"/>
+    <hyperlink r:id="rId69" ref="F70"/>
+    <hyperlink r:id="rId70" ref="F71"/>
+    <hyperlink r:id="rId71" ref="F72"/>
+    <hyperlink r:id="rId72" ref="F73"/>
+    <hyperlink r:id="rId73" ref="F74"/>
+    <hyperlink r:id="rId74" ref="F75"/>
   </hyperlinks>
-  <drawing r:id="rId68"/>
+  <drawing r:id="rId75"/>
 </worksheet>
 </file>